--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/80_Yozgat_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/80_Yozgat_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC077AA-B171-46D9-B7D4-05F1F92374AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523337A5-48FC-42E8-BEF7-D831BE7EE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="674" xr2:uid="{6F1D6D03-251C-42FA-9596-3282F177EFFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{54A55608-CBA4-4736-BFAE-B05384701689}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1012,13 +1012,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9CE284C3-9E9B-409C-97E3-B6ACBD5FE7BF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{098DE106-3800-4857-8F9B-4AE9237E7806}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EE038355-18D9-4AD2-955F-4A2B1F8B3C96}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{46131F32-00B4-4575-8E6B-71BF73EB29CE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{17B12CEA-9253-4568-9D37-5802A13D41FC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8C4A744F-D908-43EF-970C-70F8167C1CDD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0420ECDA-8CC8-422F-8C1F-C5ABC85AF4F5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6E30296D-C541-4FDD-B8F1-5CB63B5FE7B7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D887A42E-DA1F-47FF-B368-B34ACE5D0319}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C22CEDEF-2366-4283-B680-DDB4C1934CFE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{95E17C70-374C-42FA-96E0-4B5AC65ACC14}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{648A238A-B723-48FB-96E9-A77347748D7E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2ED76916-CF3D-4499-BF70-7058C4F4BC17}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A56D8ECF-17D4-4BD4-9C54-EFCE10F06AB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219F96A9-027B-46BA-9A9A-959F953891A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C03E6C1-60A4-4DD2-BEF9-A6E513FFD6C6}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2654,17 +2654,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9686EF2-AFC2-4CF2-94B0-20781A4DED0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BE2631E-49DD-4FF5-B6FF-FC83BA1AC89E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA315929-5753-4AD0-8EC8-0C699B803D17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66063405-38EE-4732-9AB0-60AD8F2AC900}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A13408C3-3DCF-43CD-925E-85D0538B2F85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A7ECE8F-A24F-4F51-BD0F-E57B1BBDAAA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{864F8FF7-C3D9-4B9C-B351-9FC3037719C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAC0DA62-4273-4C32-BCC0-804636150D3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BF334FF1-9DC1-4CF5-BE1A-77A9CCAA1D5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CDA27C3A-B93A-461A-AD5A-188FD9E46F28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E796C5F1-50BE-44B4-B472-35D9EA500DC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10983C32-1C3E-4181-BA84-122754544855}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5728E6BB-AA8A-4884-97FD-5B74534159A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE401F0E-D43F-4068-8322-5B6B4C542246}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FE0D589-17D2-4856-B275-B1AE1090AA54}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7581732-A57C-486A-8136-764F7C5A7100}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30E2BA02-E406-45EE-A891-B80BFE7237B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50A81720-CDA7-4D2C-9545-7D4F8583BDC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE38FE31-DA07-459B-979B-AC21E6278DEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B609188F-2057-4174-8C0F-795B2732F193}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B244FF9E-A7E8-490A-ADFE-6B8233DB63AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3382DD92-8CD3-4115-AE98-BF7AE3588506}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2677,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C428FDB7-1AE7-4FF8-880A-0C996BFB69FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2388C3-A241-4D22-B998-AB59B0C9A093}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3938,17 +3938,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB8328CB-5D8A-4E7D-8AAA-A6DB9B26D00C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0DEC61C-9855-407C-9FA2-EA223BF30A29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E39C4943-D14B-477D-9020-000A4BC19641}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D6AFAA9-DCEC-4232-BAE1-B099B23A2667}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27D6E5ED-5414-44D1-92FA-AB4F4146F238}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2EE9A760-B9EF-4555-97A2-197A0BB06A5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{270BB884-8CC6-48C5-97AC-C6DB891A4B5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8EC11D1-C770-4C9B-83DB-73F394A1FF93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD8B0470-A138-4B2D-B5DE-9B0C12F17358}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EE372AB6-9A4E-46E8-A742-5CEA8950D33C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B016C54B-5D64-46ED-81C5-6DB6981A9361}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{556F60F8-A00D-4AF7-9B6A-7550B839F585}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C58DC48-F4A5-4A86-8DD5-39FAACA8F273}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E7253BB-2274-4238-BEEF-56A769A8CE76}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39BAE9B5-7D76-4DCD-9CEA-AD695EA745EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C05A6A50-2B4A-4537-97E7-B23FC47F3945}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{299D9A16-3882-4B2E-9DB5-4C070D0B10CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94CED705-2197-49B4-BD23-ED43EAEA5EEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D621D8C-A7E8-4BD5-B7C8-4C9FD793ED61}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0B31AE6-AA17-4C11-BD75-181860E20097}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{97EA320B-6752-4E48-AC75-9167C14E9BCA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85089458-8E6E-4DDD-AA15-0D4D32B8A006}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3961,7 +3961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924FEC30-6488-4FEF-95D9-5500F65CD46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90499DE5-4D12-43AD-B5CE-4830A342A25C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5202,17 +5202,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFE9F874-F81C-497A-BF11-35C630A097C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA66E4BB-4DCC-41F5-86AA-770A2E2D827E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{963139D7-28D5-4FFF-9368-54D90BA2F7D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58EE7D67-A154-487F-9ABD-DC758A834511}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE29B7E9-A654-4FE6-93D1-B6F469ADE9E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5C48091-D5A5-4F11-8ABD-5A16CE267C78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F0EFF3B-1E53-43A0-B544-C6415A058B71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C018161B-1396-4B93-8481-BDDF34DCE8B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A6B36C05-7213-45BB-8224-8E60CFB84290}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{07D97D2A-62D9-4824-85F5-35FC9FAAC52C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B16DC954-4F83-49AE-BD92-26A755AD1E71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43D96381-F647-48E5-9C35-715201FEC746}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA14C452-9C4E-4FC5-BC14-C728E694ABA8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3BECFD6-21AD-40B8-A16F-859CE3A74461}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DC19B28-327F-4B4C-8912-FD69FF84698A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8960E9FE-B4D6-4367-9AA2-FCEC68C049B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0CDB546-521B-49CE-8C71-81408AA6F93E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{185C7717-1747-4D18-8EB2-6BC78E48B6EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2050EE93-F646-436F-BCAE-952351A9E4FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BDF3478E-F36C-44D1-BAB3-9FDF32438748}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{10584226-50F7-472C-9EA1-33D7C4BB028F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB2B2A4D-BF48-471B-A713-8435A6E610E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BB3382-97E8-4056-AE24-CB0EBEB9508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED30DA47-E278-44DC-866A-C196454C091F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6466,17 +6466,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C10682CA-CE15-44B7-9A51-F17ABD02EF6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AADF09D4-B078-46A9-A71C-CB9AEA5712E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F185BEE-384E-4415-BA1D-BDC2D7E15328}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A569F92-FAE3-4392-84E0-7455F2A82299}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1C84D9B-5021-465F-BE35-DE2F891E2B07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2C17A64-F854-4C73-A65E-3381B781C5F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1233E2D-4881-4D00-B23A-FE767E63F76F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8355CE0-B74F-46BC-B947-89539E91A195}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{812BC004-EE3F-4C83-B1F2-BD3B96B5B8C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8952A9F2-810C-424E-9F58-59148F8C30D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD2CAF68-CD0A-445A-87D8-D0498BB984F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48E22CEE-6BAB-4729-9C90-D137F038F367}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8909FDE7-750E-4FC7-A31D-D49D2E28F113}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18BB02D0-5984-40E3-9387-DF532949B775}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBAF7DF5-1876-4393-92F5-B4A0EA90A26B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5992FCC-567D-4EAC-A47A-ECBAB6EB8306}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97B196F5-2D25-42E1-B3A4-641AA817D37C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D119821-5F46-48A4-9CE0-BE57993D35F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35644DBF-DAC7-4F9C-9B33-88647263BC57}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{89AE85E4-D81A-4CB2-99B8-6945003A44C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{678AF19C-7554-4DAE-A403-4D0EFA0FB77F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4A46DC4-2D2D-4EA3-8EA2-AD69E37864F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6489,7 +6489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90768821-B6A6-4189-9E2D-49006C7412F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F852DB6-8053-423F-8917-CC7E13A2F977}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7750,17 +7750,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4415461-B96F-4A72-98D2-81AFEAC4C308}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F58DCA5-00A9-4F40-9A1A-90F720C075BB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DEAD4FE-80DD-4651-B55C-07D3CBB9C81D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDB2FA46-5D3C-4D6A-807F-C3FD6E019203}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBAC3B21-0BED-43FC-A044-AEF70CE202D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1633000F-650C-4CAB-81E6-89E914195425}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97CC4633-279C-4F29-ABE5-1FA50406B7D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8571F479-DA4C-48F5-BF79-554E6DD8ACC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4B7BF8F3-3A87-46EF-A37E-A91FAFB3E3A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90542AE4-8655-4F22-8CC5-3B6C0DC719E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C1C400F-38EE-4E95-A14C-9E68193639D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E493671-3807-43FF-8330-A421E62201C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A880702A-B2F3-4B64-8834-600188D4F6A5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C0BFD8C-917E-40C7-B1BB-E5E724DD58AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52296A93-4107-41D2-9AAF-7EE457EC54D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17CB874F-71E6-4781-BC3E-6BCB1106B8AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82CCE81B-FCE7-4204-B838-8C7DAF2C8010}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{680B2119-5FA9-42AA-ABC7-E4EDAC5B5607}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91785E0A-5064-409D-AE55-E83726296290}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5DF14F0A-7ECD-4049-A296-70F3FA6C56CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4DA1B7B9-0F9D-42DC-BE5A-D58864C3EA51}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19685AA2-2A1B-450F-B73D-4C6FB65914B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7773,7 +7773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E2D6D1-BE07-45D0-8C61-A8FBEA69D005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F95B3FE-08B6-4D7A-9B45-171604AE04DA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9034,17 +9034,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97991123-2A25-45C5-97A2-8156CA156718}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62A19E1A-072C-43C0-BBF8-AC4910BD8C2C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF767B4B-7965-402D-B002-2BEBDFEE0E93}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A7973EA-A4E7-40C0-A84D-685B32A2D0EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E9CE355-E900-4AC9-B0F7-4952BBD6067E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{544CB7D7-6F86-45D3-9EFF-C849294513C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{215A581C-3701-4DCE-9E26-C595E7935E12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA250F8A-96FF-49AB-8A85-4F9C7E9252A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1741E30D-5F9D-4EC1-A46B-EA143FD29724}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B4DF04A0-71C6-476E-8B3D-5AD4DF3EC817}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47815DA1-E977-41AA-AA82-591BEF7DA0DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68C2717A-EEAC-4662-88B0-033E097A9B49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3459ADBF-461B-4768-9913-DA1D9744AC96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{035FCB76-36E8-4E59-B9FC-661E73A44C06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35B72E9D-191C-41A1-A680-576D0BE62F5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{164F3101-22DE-41A0-9B9A-1149F14B4222}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C4B6E05-CEF6-4432-BAA2-B0957069B5BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F71B23E-7F98-4DEE-8A1F-244871173402}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53749400-D2F7-4794-986C-567940919ED1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E805BF75-8CB2-4E23-A5F4-4065F0880EBD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ABE6A4B2-4C7E-4BBD-9452-51C8704CB0D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{149CADED-82BC-4A6C-9D59-E6D9F31FBE9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9057,7 +9057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BEA96D-4F65-4D7C-A191-8F250EEB62DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4984CD9-D11F-4CA1-B114-2A80ABDF3D86}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10318,17 +10318,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE240DCE-1D3D-4A96-8CFA-FAE060DD4C72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F97E917C-F6B9-42E4-B8A5-C0A06F3F020B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E6B387A-AB14-4063-B53D-C81ED304EB69}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0C3D180-C47E-4DC8-8B97-CE5BEBF98879}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFBBE5C8-F3A1-4295-A919-372969AFA836}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE9B1BE4-4F57-41E8-B53E-0C3F39CF9A4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89408D61-AE6F-4368-8965-F15CA3BC1303}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DEDAC29-298D-4005-B4D3-7D76790F0D34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E22BCC03-8909-46E5-9B46-4DB0CF20DD1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BBDA4673-DF53-49E9-BD13-3996FD4429DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEBD67E9-2DFC-42EE-9937-67803BFE7AAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F18B57A-948A-4140-8E31-6B32509D6B51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8EA72F8-28F0-41D4-A6EC-FF66CCF78664}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA930994-5F55-4F3A-A991-8F7CE15C0A22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84B4422B-64C2-4F21-88BC-A98C20AE8DB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43E7C685-AB09-46FD-8AC4-79EB80D58F8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD255A8B-D481-47CE-979C-F5540F1A2572}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0476EF09-9323-4171-9348-73F2A7D10367}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CCCA873-5CF9-41C8-B5F2-9416C53A2E70}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{984B4AC3-BC1D-4954-BA93-5E4A63302CFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{74E03418-707B-4990-8CED-6C42CF1FE46F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34EC4F43-E21E-4A2F-9045-1D67C7F94923}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10341,7 +10341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E571D67-117F-46DC-AACB-896F333F983C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013A972-50A1-4C0C-B88A-FC7AAA2017FE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11602,17 +11602,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EEFED42-D773-43C4-B4D2-1A877AAFD143}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4693346F-2762-437B-A95B-C1783EE5DBBD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06490F65-7508-4002-B4BB-74498F0969AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B597A3E-912B-42CE-8452-8294653A6B40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D474763-5994-46F3-B5B3-811C6313E983}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF145B0E-9444-4B12-B9C4-BA8B1A8D494A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{590413A3-1576-4905-8C22-F50FF2FFBDA3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98BE0197-3112-4B51-8E76-F0C85C3FC999}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E3400D39-C82F-401F-98F6-CECAE8E6F463}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09CD7DFF-EAAC-4309-9F8F-D565A2444FA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18E0307D-B025-4495-B15D-B86A03F6C449}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EAEB42E-C61F-49B9-8316-5CC26E812954}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C43707F5-2B24-479B-9D8A-57CBAD49B5E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CED8EE6-5FE4-46A4-A99A-6570DFD4857B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDB38F9F-B7A6-4592-A91F-46AFC96B7C52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E98FA457-3B56-40AC-9BD3-E2D1F64B8FF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A218B37F-A417-4245-BC8D-452B20AFE0F5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51B29722-18C7-4A38-AFD5-7D41B7CB4F3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A193CCF-6722-4E4F-9256-014F53A460A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72073DA2-053D-4175-8563-65518AA4D2B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B6C6BF9E-B679-4F92-BB18-09F19A1E1FC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81ECD2D3-DD55-46EE-BA3F-3FE65369CF00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11625,7 +11625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC566BC9-5614-4455-84F0-147E633B4D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76FABF7-28C5-4D07-8A30-F97D2BC103FC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12886,17 +12886,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B970F529-682E-450D-BDB5-39565777C361}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45E620D6-6147-42AD-9179-55485AFBACF5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B28CC21A-0EDF-4583-B0FA-B22EB4BA70AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E85C507-8707-4ED8-8784-15E361910CF3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94E19C66-68A3-4AD8-B81A-3A2F50DD694B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3F3DBB4-6715-46C2-B8FB-F25AE4AC1998}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51C18858-0B5A-422B-AA53-E97827233DD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5212D5BB-DA19-46EC-BA95-9509D772D8A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A452FDE-B5FF-4B6C-95EC-C4FF0A9CC79D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F13A0B7E-CED1-42C7-A090-AAF05CAB001A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D73765E-84FA-4B71-83D0-BA06244062AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5CE7650-3526-4810-98E4-A24854D06232}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61289C65-F19E-4A6B-9E33-97D7283C1E84}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7DF6C3E-6617-4E65-85BD-8444018DAF8A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27A66204-8C2E-41A5-A69F-7EB99FE33E77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C79B2935-0758-4594-B8BB-8D105544A38C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99500155-E9F7-4D9E-9FC7-9628BD7D3A00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA426076-69E0-4D75-B0B4-2F7A4E23628F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{956A8117-C6E9-424B-A416-5385C8EC77D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B8CB98D2-FC00-4F67-9926-F3B961479ADF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FF39EDC6-9334-4144-B814-6DB90019632A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4298C917-8768-4CB6-85D8-76FBE89DC9CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12909,7 +12909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB389A-444D-4012-95AD-FD149394F30A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BD3F99-0C4F-43D0-8C9A-C910AAC6EB59}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14170,17 +14170,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1002B32-8428-494F-9AB5-FF55F00F6E58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73C589C3-E467-4C3D-A3BB-31231D87868A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{968D010A-5553-493A-B10E-7399C34B4B39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83C2CC55-96C1-4805-B41C-071D6482EDD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5F7BF55-745E-426A-AEE7-0B5A827CB9A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFCFBF48-4314-4853-B76A-53911D1679D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0191E2D2-5FB8-4E9F-92BE-D531CC1FC71D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B672F41E-EC31-471F-9CF7-98A528FA8FA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3D83F0B9-B1AA-4FA8-AEE3-2575C1C15FAC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7D5BDBA0-ABED-4F78-AC9E-73C188898F65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CE4F7E2-F770-41FE-AC99-8FC5F7EBC5AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBC5BA23-B5D7-4B84-AF0F-779D6D889C5D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37DE226F-7BFF-429E-8ACD-0E64A79E16D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32FFD7EC-D147-42D5-B464-3F64184BCE92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25B0C26F-CBB1-4835-B122-E7219087F972}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51F2D146-4418-42EC-B306-8CFE3811A1FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C53C743-9F29-44A8-B78D-29632213A330}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14E24BF7-B06D-4D25-A2D0-65DD1BB605A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24609354-EC7C-489D-BD86-2D7F461D3DBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{86EC409F-85F0-443E-B47D-4C25A1FB35EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0429791D-C751-413F-B924-36C7076F992C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF8BFD5E-A031-4C58-B49C-CDFA56EC5F1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14193,7 +14193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3A34CE-8FA2-4622-A783-68BDF5D3980E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD2D70B-EAF0-4F57-8787-AFDC2D88A072}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15454,17 +15454,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA9F84AF-2621-4FCC-B444-7FA52FAA2E2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF4B8A5F-9EDB-47D8-AE54-5C007D66BB81}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9FD10C98-1FC2-440B-9EDF-3C864ABBECCC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFADD2AA-F39A-4BFD-BA74-258F9A44C882}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7B92DD3-37F5-45E9-BE0D-E2C731F66F47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59FE5C8F-CB38-4AB0-82D7-45D6D142E94B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D98E686D-3824-4BD5-BBF7-574D84DF1D3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{501D5246-A8F2-4F4B-AD37-8B0D3B533CBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DF52F1D5-A19B-4218-9EAE-D94D8C54BCB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{29AC7F22-94DC-4C25-A747-DB177E5FD408}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A72B154B-5D02-45B2-A8DA-63FDFF9F3FBF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CECBD9C-96E9-4D02-8834-D458E9A7C7EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B505D98B-29B1-4BBA-B112-91E53FDD1C28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BB7F3D6-89E1-4005-8275-B389C9B31E5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D24C5A51-A516-4D5F-8332-80E81BF050CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52F2A710-9C1B-499B-8F8D-2278A829637A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DF0A946-C81E-412A-81E6-8A5C23701895}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61833CF0-DDDD-4C56-9217-B26195B6F22E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB334537-277F-4FBA-8960-95C506CFD671}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8D9C7827-04E1-4F95-AC32-145CB374809C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C162E0C0-D464-428D-B47B-F8615CB711F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA454576-37F5-46D3-899C-E879DD31EC85}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15477,7 +15477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE84EB2-CE30-4EAF-A013-4BE540C8F0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE060B6E-909A-4706-8DFF-F57304057BF9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16738,17 +16738,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E426AD9F-2795-4912-AF3B-4CD3D386B4BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC870877-00A1-45D5-9EB3-AF0D9A375C95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF174273-A917-4DD6-9AC7-78EA72944FCE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CFC3EAC-2222-4242-A3DA-A398B2633983}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6ED5EDE-0659-46FC-9312-94798D77CFA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A4CAE83-FDE4-4003-BF9C-4A21ED64FF3A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB465CB0-CEF5-43C2-B68F-CB396097D9C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CCCD0D4-DBD1-4334-A1F9-6C620042092D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31973726-D493-47D6-B3C6-05D8D83C4180}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8B4D4F35-A781-4A07-8842-00546267F9D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6B21CDC-AF89-4FE0-B3A0-D6B54947115F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7705414B-B131-406B-BC47-1EBC8160ACB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E57C11E1-548C-4019-BA25-4AA0699A8C30}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F650A7EE-894A-4E1F-9C35-19933D763062}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C10B2830-F4DE-41B6-A1DC-98D63728C3FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAB27468-E5F9-497A-89B5-DD2D8119E5BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50707E69-F5A7-4B38-9E5B-1F71BFC509C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4313E6E0-9BF1-4D0C-98D7-7E54D5AC15D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D19CCADB-AEF5-436C-8D9C-4F0B272AD977}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6379FFDC-44CE-4BE7-A260-09FEB87AEF3F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E0C1A395-6FCA-439B-AD82-1A49C34E5580}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C542115-2778-4938-9C2C-EA82E4EBF7AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
